--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1614316666666667</v>
+        <v>0.009345666666666667</v>
       </c>
       <c r="H2">
-        <v>0.484295</v>
+        <v>0.028037</v>
       </c>
       <c r="I2">
-        <v>0.1885876612630013</v>
+        <v>0.009908940382722529</v>
       </c>
       <c r="J2">
-        <v>0.1885876612630013</v>
+        <v>0.009908940382722529</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6378633333333333</v>
+        <v>0.5079733333333333</v>
       </c>
       <c r="N2">
-        <v>1.91359</v>
+        <v>1.52392</v>
       </c>
       <c r="O2">
-        <v>0.7607419180687486</v>
+        <v>0.6037488273029235</v>
       </c>
       <c r="P2">
-        <v>0.7607419180687486</v>
+        <v>0.6037488273029235</v>
       </c>
       <c r="Q2">
-        <v>0.1029713410055556</v>
+        <v>0.004747349448888888</v>
       </c>
       <c r="R2">
-        <v>0.92674206905</v>
+        <v>0.04272614504</v>
       </c>
       <c r="S2">
-        <v>0.1434665391533151</v>
+        <v>0.005982511135883308</v>
       </c>
       <c r="T2">
-        <v>0.1434665391533151</v>
+        <v>0.005982511135883308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1614316666666667</v>
+        <v>0.009345666666666667</v>
       </c>
       <c r="H3">
-        <v>0.484295</v>
+        <v>0.028037</v>
       </c>
       <c r="I3">
-        <v>0.1885876612630013</v>
+        <v>0.009908940382722529</v>
       </c>
       <c r="J3">
-        <v>0.1885876612630013</v>
+        <v>0.009908940382722529</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.200612</v>
+        <v>0.333392</v>
       </c>
       <c r="N3">
-        <v>0.6018359999999999</v>
+        <v>1.000176</v>
       </c>
       <c r="O3">
-        <v>0.2392580819312514</v>
+        <v>0.3962511726970765</v>
       </c>
       <c r="P3">
-        <v>0.2392580819312514</v>
+        <v>0.3962511726970764</v>
       </c>
       <c r="Q3">
-        <v>0.03238512951333333</v>
+        <v>0.003115770501333333</v>
       </c>
       <c r="R3">
-        <v>0.2914661656199999</v>
+        <v>0.028041934512</v>
       </c>
       <c r="S3">
-        <v>0.04512112210968626</v>
+        <v>0.00392642924683922</v>
       </c>
       <c r="T3">
-        <v>0.04512112210968625</v>
+        <v>0.00392642924683922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.211094</v>
+        <v>0.1614316666666667</v>
       </c>
       <c r="H4">
-        <v>0.633282</v>
+        <v>0.484295</v>
       </c>
       <c r="I4">
-        <v>0.2466041798902653</v>
+        <v>0.1711613326194174</v>
       </c>
       <c r="J4">
-        <v>0.2466041798902652</v>
+        <v>0.1711613326194175</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6378633333333333</v>
+        <v>0.5079733333333333</v>
       </c>
       <c r="N4">
-        <v>1.91359</v>
+        <v>1.52392</v>
       </c>
       <c r="O4">
-        <v>0.7607419180687486</v>
+        <v>0.6037488273029235</v>
       </c>
       <c r="P4">
-        <v>0.7607419180687486</v>
+        <v>0.6037488273029235</v>
       </c>
       <c r="Q4">
-        <v>0.1346491224866667</v>
+        <v>0.08200298182222221</v>
       </c>
       <c r="R4">
-        <v>1.21184210238</v>
+        <v>0.7380268363999999</v>
       </c>
       <c r="S4">
-        <v>0.1876021368134911</v>
+        <v>0.1033384538485789</v>
       </c>
       <c r="T4">
-        <v>0.1876021368134911</v>
+        <v>0.1033384538485789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +714,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.211094</v>
+        <v>0.1614316666666667</v>
       </c>
       <c r="H5">
-        <v>0.633282</v>
+        <v>0.484295</v>
       </c>
       <c r="I5">
-        <v>0.2466041798902653</v>
+        <v>0.1711613326194174</v>
       </c>
       <c r="J5">
-        <v>0.2466041798902652</v>
+        <v>0.1711613326194175</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.200612</v>
+        <v>0.333392</v>
       </c>
       <c r="N5">
-        <v>0.6018359999999999</v>
+        <v>1.000176</v>
       </c>
       <c r="O5">
-        <v>0.2392580819312514</v>
+        <v>0.3962511726970765</v>
       </c>
       <c r="P5">
-        <v>0.2392580819312514</v>
+        <v>0.3962511726970764</v>
       </c>
       <c r="Q5">
-        <v>0.042347989528</v>
+        <v>0.05382002621333333</v>
       </c>
       <c r="R5">
-        <v>0.381131905752</v>
+        <v>0.48438023592</v>
       </c>
       <c r="S5">
-        <v>0.05900204307677414</v>
+        <v>0.06782287877083854</v>
       </c>
       <c r="T5">
-        <v>0.05900204307677413</v>
+        <v>0.06782287877083854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4834776666666666</v>
+        <v>0.7723776666666667</v>
       </c>
       <c r="H6">
-        <v>1.450433</v>
+        <v>2.317133</v>
       </c>
       <c r="I6">
-        <v>0.5648081588467335</v>
+        <v>0.81892972699786</v>
       </c>
       <c r="J6">
-        <v>0.5648081588467334</v>
+        <v>0.81892972699786</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6378633333333333</v>
+        <v>0.5079733333333333</v>
       </c>
       <c r="N6">
-        <v>1.91359</v>
+        <v>1.52392</v>
       </c>
       <c r="O6">
-        <v>0.7607419180687486</v>
+        <v>0.6037488273029235</v>
       </c>
       <c r="P6">
-        <v>0.7607419180687486</v>
+        <v>0.6037488273029235</v>
       </c>
       <c r="Q6">
-        <v>0.3083926760522222</v>
+        <v>0.3923472579288889</v>
       </c>
       <c r="R6">
-        <v>2.77553408447</v>
+        <v>3.53112532136</v>
       </c>
       <c r="S6">
-        <v>0.4296732421019425</v>
+        <v>0.4944278623184613</v>
       </c>
       <c r="T6">
-        <v>0.4296732421019424</v>
+        <v>0.4944278623184613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4834776666666666</v>
+        <v>0.7723776666666667</v>
       </c>
       <c r="H7">
-        <v>1.450433</v>
+        <v>2.317133</v>
       </c>
       <c r="I7">
-        <v>0.5648081588467335</v>
+        <v>0.81892972699786</v>
       </c>
       <c r="J7">
-        <v>0.5648081588467334</v>
+        <v>0.81892972699786</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.200612</v>
+        <v>0.333392</v>
       </c>
       <c r="N7">
-        <v>0.6018359999999999</v>
+        <v>1.000176</v>
       </c>
       <c r="O7">
-        <v>0.2392580819312514</v>
+        <v>0.3962511726970765</v>
       </c>
       <c r="P7">
-        <v>0.2392580819312514</v>
+        <v>0.3962511726970764</v>
       </c>
       <c r="Q7">
-        <v>0.09699142166533332</v>
+        <v>0.2575045350453333</v>
       </c>
       <c r="R7">
-        <v>0.8729227949879999</v>
+        <v>2.317540815408</v>
       </c>
       <c r="S7">
-        <v>0.135134916744791</v>
+        <v>0.3245018646793987</v>
       </c>
       <c r="T7">
-        <v>0.135134916744791</v>
+        <v>0.3245018646793987</v>
       </c>
     </row>
   </sheetData>
